--- a/open_sessions/open_Product-or-Strategy-Overview.xlsx
+++ b/open_sessions/open_Product-or-Strategy-Overview.xlsx
@@ -495,14 +495,14 @@
         <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>897</v>
+        <v>809</v>
       </c>
       <c r="F2" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -531,14 +531,14 @@
         <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>960</v>
+        <v>903</v>
       </c>
       <c r="F3" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Partner Theatre</t>
+          <t>Partner Theater</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -567,14 +567,14 @@
         <v>1000</v>
       </c>
       <c r="E4" t="n">
-        <v>880</v>
+        <v>779</v>
       </c>
       <c r="F4" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -603,14 +603,14 @@
         <v>1000</v>
       </c>
       <c r="E5" t="n">
-        <v>913</v>
+        <v>857</v>
       </c>
       <c r="F5" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -639,14 +639,14 @@
         <v>1000</v>
       </c>
       <c r="E6" t="n">
-        <v>829</v>
+        <v>450</v>
       </c>
       <c r="F6" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -675,14 +675,14 @@
         <v>1000</v>
       </c>
       <c r="E7" t="n">
-        <v>864</v>
+        <v>619</v>
       </c>
       <c r="F7" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -711,14 +711,14 @@
         <v>1000</v>
       </c>
       <c r="E8" t="n">
-        <v>883</v>
+        <v>751</v>
       </c>
       <c r="F8" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -747,14 +747,14 @@
         <v>1000</v>
       </c>
       <c r="E9" t="n">
-        <v>923</v>
+        <v>871</v>
       </c>
       <c r="F9" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -783,14 +783,14 @@
         <v>1000</v>
       </c>
       <c r="E10" t="n">
-        <v>942</v>
+        <v>882</v>
       </c>
       <c r="F10" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Partner Theatre</t>
+          <t>Partner Theater</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -819,14 +819,14 @@
         <v>1000</v>
       </c>
       <c r="E11" t="n">
-        <v>900</v>
+        <v>828</v>
       </c>
       <c r="F11" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -855,14 +855,14 @@
         <v>1000</v>
       </c>
       <c r="E12" t="n">
-        <v>863</v>
+        <v>723</v>
       </c>
       <c r="F12" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -891,14 +891,14 @@
         <v>1000</v>
       </c>
       <c r="E13" t="n">
-        <v>885</v>
+        <v>805</v>
       </c>
       <c r="F13" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -927,14 +927,14 @@
         <v>1000</v>
       </c>
       <c r="E14" t="n">
-        <v>964</v>
+        <v>925</v>
       </c>
       <c r="F14" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -963,14 +963,14 @@
         <v>1000</v>
       </c>
       <c r="E15" t="n">
-        <v>891</v>
+        <v>732</v>
       </c>
       <c r="F15" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -999,14 +999,14 @@
         <v>1000</v>
       </c>
       <c r="E16" t="n">
-        <v>929</v>
+        <v>896</v>
       </c>
       <c r="F16" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1035,14 +1035,14 @@
         <v>1000</v>
       </c>
       <c r="E17" t="n">
-        <v>889</v>
+        <v>714</v>
       </c>
       <c r="F17" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1071,14 +1071,14 @@
         <v>1000</v>
       </c>
       <c r="E18" t="n">
-        <v>986</v>
+        <v>944</v>
       </c>
       <c r="F18" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Partner Theatre</t>
+          <t>Partner Theater</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1107,14 +1107,14 @@
         <v>1000</v>
       </c>
       <c r="E19" t="n">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="F19" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1143,14 +1143,14 @@
         <v>1000</v>
       </c>
       <c r="E20" t="n">
-        <v>949</v>
+        <v>898</v>
       </c>
       <c r="F20" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1179,14 +1179,14 @@
         <v>1000</v>
       </c>
       <c r="E21" t="n">
-        <v>958</v>
+        <v>908</v>
       </c>
       <c r="F21" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Partner Theatre</t>
+          <t>Partner Theater</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1215,14 +1215,14 @@
         <v>1000</v>
       </c>
       <c r="E22" t="n">
-        <v>976</v>
+        <v>927</v>
       </c>
       <c r="F22" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1251,14 +1251,14 @@
         <v>1000</v>
       </c>
       <c r="E23" t="n">
-        <v>906</v>
+        <v>843</v>
       </c>
       <c r="F23" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1287,14 +1287,14 @@
         <v>1000</v>
       </c>
       <c r="E24" t="n">
-        <v>949</v>
+        <v>889</v>
       </c>
       <c r="F24" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1323,14 +1323,14 @@
         <v>1000</v>
       </c>
       <c r="E25" t="n">
-        <v>872</v>
+        <v>704</v>
       </c>
       <c r="F25" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1359,10 +1359,10 @@
         <v>157</v>
       </c>
       <c r="E26" t="n">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F26" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1395,14 +1395,14 @@
         <v>1000</v>
       </c>
       <c r="E27" t="n">
-        <v>869</v>
+        <v>680</v>
       </c>
       <c r="F27" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1431,14 +1431,14 @@
         <v>1000</v>
       </c>
       <c r="E28" t="n">
-        <v>856</v>
+        <v>630</v>
       </c>
       <c r="F28" t="n">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1467,10 +1467,10 @@
         <v>157</v>
       </c>
       <c r="E29" t="n">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F29" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1503,14 +1503,14 @@
         <v>1000</v>
       </c>
       <c r="E30" t="n">
-        <v>955</v>
+        <v>909</v>
       </c>
       <c r="F30" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1539,14 +1539,14 @@
         <v>1000</v>
       </c>
       <c r="E31" t="n">
-        <v>935</v>
+        <v>833</v>
       </c>
       <c r="F31" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1575,14 +1575,14 @@
         <v>1000</v>
       </c>
       <c r="E32" t="n">
-        <v>881</v>
+        <v>736</v>
       </c>
       <c r="F32" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1611,14 +1611,14 @@
         <v>1000</v>
       </c>
       <c r="E33" t="n">
-        <v>903</v>
+        <v>795</v>
       </c>
       <c r="F33" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1647,14 +1647,14 @@
         <v>1000</v>
       </c>
       <c r="E34" t="n">
-        <v>933</v>
+        <v>859</v>
       </c>
       <c r="F34" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1683,14 +1683,14 @@
         <v>1000</v>
       </c>
       <c r="E35" t="n">
-        <v>968</v>
+        <v>933</v>
       </c>
       <c r="F35" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1702,7 +1702,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PSOAPP-1775 - New AppDynamics Innovation in Cloud and Security</t>
+          <t>PSOAPP-1775 - New AppDynamics Innovations in Cloud and Security</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1719,14 +1719,14 @@
         <v>1000</v>
       </c>
       <c r="E36" t="n">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="F36" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1755,14 +1755,14 @@
         <v>1000</v>
       </c>
       <c r="E37" t="n">
-        <v>886</v>
+        <v>775</v>
       </c>
       <c r="F37" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1791,14 +1791,14 @@
         <v>1000</v>
       </c>
       <c r="E38" t="n">
-        <v>938</v>
+        <v>878</v>
       </c>
       <c r="F38" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1827,14 +1827,14 @@
         <v>1000</v>
       </c>
       <c r="E39" t="n">
-        <v>971</v>
+        <v>911</v>
       </c>
       <c r="F39" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Partner Theatre</t>
+          <t>Partner Theater</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1863,14 +1863,14 @@
         <v>1000</v>
       </c>
       <c r="E40" t="n">
-        <v>949</v>
+        <v>918</v>
       </c>
       <c r="F40" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1899,14 +1899,14 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>938</v>
+        <v>887</v>
       </c>
       <c r="F41" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1935,14 +1935,14 @@
         <v>1000</v>
       </c>
       <c r="E42" t="n">
-        <v>866</v>
+        <v>665</v>
       </c>
       <c r="F42" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -1971,14 +1971,14 @@
         <v>1000</v>
       </c>
       <c r="E43" t="n">
-        <v>865</v>
+        <v>697</v>
       </c>
       <c r="F43" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2007,14 +2007,14 @@
         <v>1000</v>
       </c>
       <c r="E44" t="n">
-        <v>939</v>
+        <v>894</v>
       </c>
       <c r="F44" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2043,14 +2043,14 @@
         <v>1000</v>
       </c>
       <c r="E45" t="n">
-        <v>951</v>
+        <v>901</v>
       </c>
       <c r="F45" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2079,10 +2079,10 @@
         <v>157</v>
       </c>
       <c r="E46" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="F46" t="n">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2115,14 +2115,14 @@
         <v>1000</v>
       </c>
       <c r="E47" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="F47" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2151,10 +2151,10 @@
         <v>157</v>
       </c>
       <c r="E48" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="F48" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2187,14 +2187,14 @@
         <v>1000</v>
       </c>
       <c r="E49" t="n">
-        <v>970</v>
+        <v>932</v>
       </c>
       <c r="F49" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2223,14 +2223,14 @@
         <v>1000</v>
       </c>
       <c r="E50" t="n">
-        <v>883</v>
+        <v>758</v>
       </c>
       <c r="F50" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2259,14 +2259,14 @@
         <v>1000</v>
       </c>
       <c r="E51" t="n">
-        <v>874</v>
+        <v>728</v>
       </c>
       <c r="F51" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cisco Theatre</t>
+          <t>Cisco Theater</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2295,10 +2295,10 @@
         <v>157</v>
       </c>
       <c r="E52" t="n">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F52" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
